--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppa-Npr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppa-Npr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Nppa</t>
+  </si>
+  <si>
+    <t>Npr1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nppa</t>
-  </si>
-  <si>
-    <t>Npr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H2">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I2">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J2">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.750927</v>
+        <v>42.079317</v>
       </c>
       <c r="N2">
-        <v>107.501854</v>
+        <v>84.15863400000001</v>
       </c>
       <c r="O2">
-        <v>0.6206622533318568</v>
+        <v>0.9432410856124954</v>
       </c>
       <c r="P2">
-        <v>0.522688180082781</v>
+        <v>0.9210997106511356</v>
       </c>
       <c r="Q2">
-        <v>8.892526487416498</v>
+        <v>11.9372920828035</v>
       </c>
       <c r="R2">
-        <v>35.57010594966599</v>
+        <v>47.749168331214</v>
       </c>
       <c r="S2">
-        <v>0.09610034822742082</v>
+        <v>0.2984206714453184</v>
       </c>
       <c r="T2">
-        <v>0.06039481866616467</v>
+        <v>0.2343638019344664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H3">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I3">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J3">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>5.924393999999999</v>
       </c>
       <c r="O3">
-        <v>0.02280300350085579</v>
+        <v>0.04426665502639657</v>
       </c>
       <c r="P3">
-        <v>0.02880518430829431</v>
+        <v>0.06484132809455205</v>
       </c>
       <c r="Q3">
-        <v>0.3267095937209999</v>
+        <v>0.5602215580289999</v>
       </c>
       <c r="R3">
-        <v>1.960257562326</v>
+        <v>3.361329348173999</v>
       </c>
       <c r="S3">
-        <v>0.003530707023505179</v>
+        <v>0.01400499312117808</v>
       </c>
       <c r="T3">
-        <v>0.003328339819487336</v>
+        <v>0.0164981706095389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +664,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H4">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I4">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J4">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.126509</v>
+        <v>0.387359</v>
       </c>
       <c r="N4">
-        <v>0.3795270000000001</v>
+        <v>0.774718</v>
       </c>
       <c r="O4">
-        <v>0.001460800127349615</v>
+        <v>0.008682957560403621</v>
       </c>
       <c r="P4">
-        <v>0.001845310285739608</v>
+        <v>0.008479136265878869</v>
       </c>
       <c r="Q4">
-        <v>0.0209295857055</v>
+        <v>0.1098881315945</v>
       </c>
       <c r="R4">
-        <v>0.125577514233</v>
+        <v>0.439552526378</v>
       </c>
       <c r="S4">
-        <v>0.0002261832424565028</v>
+        <v>0.002747096224741173</v>
       </c>
       <c r="T4">
-        <v>0.0002132192468412078</v>
+        <v>0.002157423989403938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,46 +726,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H5">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I5">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J5">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.385588</v>
+        <v>0.1334676666666667</v>
       </c>
       <c r="N5">
-        <v>0.771176</v>
+        <v>0.400403</v>
       </c>
       <c r="O5">
-        <v>0.004452386782793978</v>
+        <v>0.002991783036802459</v>
       </c>
       <c r="P5">
-        <v>0.003749559332842005</v>
+        <v>0.004382332149590815</v>
       </c>
       <c r="Q5">
-        <v>0.06379148592599999</v>
+        <v>0.03786284175216667</v>
       </c>
       <c r="R5">
-        <v>0.255165943704</v>
+        <v>0.227177050513</v>
       </c>
       <c r="S5">
-        <v>0.0006893860839333011</v>
+        <v>0.0009465341536533639</v>
       </c>
       <c r="T5">
-        <v>0.0004332486645272016</v>
+        <v>0.001115036745795638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,108 +788,108 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H6">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I6">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J6">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>30.192033</v>
+        <v>0.03647066666666667</v>
       </c>
       <c r="N6">
-        <v>90.576099</v>
+        <v>0.109412</v>
       </c>
       <c r="O6">
-        <v>0.3486275731477111</v>
+        <v>0.0008175187639019454</v>
       </c>
       <c r="P6">
-        <v>0.4403929289006289</v>
+        <v>0.001197492838842442</v>
       </c>
       <c r="Q6">
-        <v>4.9949548435035</v>
+        <v>0.01034619930866667</v>
       </c>
       <c r="R6">
-        <v>29.969729061021</v>
+        <v>0.062077195852</v>
       </c>
       <c r="S6">
-        <v>0.05397981108295641</v>
+        <v>0.0002586449023097276</v>
       </c>
       <c r="T6">
-        <v>0.05088588588056889</v>
+        <v>0.0003046890268828964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1654395</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H7">
-        <v>0.330879</v>
+        <v>0.230995</v>
       </c>
       <c r="I7">
-        <v>0.1548351743827375</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J7">
-        <v>0.1155465552264825</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.172684</v>
+        <v>42.079317</v>
       </c>
       <c r="N7">
-        <v>0.518052</v>
+        <v>84.15863400000001</v>
       </c>
       <c r="O7">
-        <v>0.001993983109432854</v>
+        <v>0.9432410856124954</v>
       </c>
       <c r="P7">
-        <v>0.002518837089714237</v>
+        <v>0.9210997106511356</v>
       </c>
       <c r="Q7">
-        <v>0.02856875461799999</v>
+        <v>3.240037276805</v>
       </c>
       <c r="R7">
-        <v>0.171412527708</v>
+        <v>19.44022366083</v>
       </c>
       <c r="S7">
-        <v>0.000308738722465269</v>
+        <v>0.08099777511893901</v>
       </c>
       <c r="T7">
-        <v>0.0002910429488931785</v>
+        <v>0.09541704885842259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,46 +912,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H8">
         <v>0.230995</v>
       </c>
       <c r="I8">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J8">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.750927</v>
+        <v>1.974798</v>
       </c>
       <c r="N8">
-        <v>107.501854</v>
+        <v>5.924393999999999</v>
       </c>
       <c r="O8">
-        <v>0.6206622533318568</v>
+        <v>0.04426665502639657</v>
       </c>
       <c r="P8">
-        <v>0.522688180082781</v>
+        <v>0.06484132809455205</v>
       </c>
       <c r="Q8">
-        <v>4.138731794121666</v>
+        <v>0.15205615467</v>
       </c>
       <c r="R8">
-        <v>24.83239076473</v>
+        <v>1.36850539203</v>
       </c>
       <c r="S8">
-        <v>0.04472672273709941</v>
+        <v>0.003801255716896035</v>
       </c>
       <c r="T8">
-        <v>0.04216315069191671</v>
+        <v>0.006716936396027359</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H9">
         <v>0.230995</v>
       </c>
       <c r="I9">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J9">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.974798</v>
+        <v>0.387359</v>
       </c>
       <c r="N9">
-        <v>5.924393999999999</v>
+        <v>0.774718</v>
       </c>
       <c r="O9">
-        <v>0.02280300350085579</v>
+        <v>0.008682957560403621</v>
       </c>
       <c r="P9">
-        <v>0.02880518430829431</v>
+        <v>0.008479136265878869</v>
       </c>
       <c r="Q9">
-        <v>0.15205615467</v>
+        <v>0.02982599740166667</v>
       </c>
       <c r="R9">
-        <v>1.36850539203</v>
+        <v>0.17895598441</v>
       </c>
       <c r="S9">
-        <v>0.001643250591897298</v>
+        <v>0.0007456208752698409</v>
       </c>
       <c r="T9">
-        <v>0.002323598223527262</v>
+        <v>0.0008783567620346526</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H10">
         <v>0.230995</v>
       </c>
       <c r="I10">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J10">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.126509</v>
+        <v>0.1334676666666667</v>
       </c>
       <c r="N10">
-        <v>0.3795270000000001</v>
+        <v>0.400403</v>
       </c>
       <c r="O10">
-        <v>0.001460800127349615</v>
+        <v>0.002991783036802459</v>
       </c>
       <c r="P10">
-        <v>0.001845310285739608</v>
+        <v>0.004382332149590815</v>
       </c>
       <c r="Q10">
-        <v>0.009740982151666666</v>
+        <v>0.01027678788722222</v>
       </c>
       <c r="R10">
-        <v>0.087668839365</v>
+        <v>0.09249109098500001</v>
       </c>
       <c r="S10">
-        <v>0.0001052694954776819</v>
+        <v>0.0002569096844018684</v>
       </c>
       <c r="T10">
-        <v>0.0001488537499330112</v>
+        <v>0.0004539673566239083</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,170 +1098,170 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H11">
         <v>0.230995</v>
       </c>
       <c r="I11">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J11">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.385588</v>
+        <v>0.03647066666666667</v>
       </c>
       <c r="N11">
-        <v>0.771176</v>
+        <v>0.109412</v>
       </c>
       <c r="O11">
-        <v>0.004452386782793978</v>
+        <v>0.0008175187639019454</v>
       </c>
       <c r="P11">
-        <v>0.003749559332842005</v>
+        <v>0.001197492838842442</v>
       </c>
       <c r="Q11">
-        <v>0.02968963335333333</v>
+        <v>0.002808180548888889</v>
       </c>
       <c r="R11">
-        <v>0.17813780012</v>
+        <v>0.02527362494</v>
       </c>
       <c r="S11">
-        <v>0.0003208519095261871</v>
+        <v>7.020177768342703E-05</v>
       </c>
       <c r="T11">
-        <v>0.0003024618524066529</v>
+        <v>0.0001240487119800178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.07699833333333332</v>
+        <v>0.176425</v>
       </c>
       <c r="H12">
-        <v>0.230995</v>
+        <v>0.35285</v>
       </c>
       <c r="I12">
-        <v>0.07206290135576338</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J12">
-        <v>0.08066597313380819</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.192033</v>
+        <v>42.079317</v>
       </c>
       <c r="N12">
-        <v>90.576099</v>
+        <v>84.15863400000001</v>
       </c>
       <c r="O12">
-        <v>0.3486275731477111</v>
+        <v>0.9432410856124954</v>
       </c>
       <c r="P12">
-        <v>0.4403929289006289</v>
+        <v>0.9210997106511356</v>
       </c>
       <c r="Q12">
-        <v>2.324736220944999</v>
+        <v>7.423843501725001</v>
       </c>
       <c r="R12">
-        <v>20.922625988505</v>
+        <v>29.6953740069</v>
       </c>
       <c r="S12">
-        <v>0.02512311441364268</v>
+        <v>0.1855888544170932</v>
       </c>
       <c r="T12">
-        <v>0.03552472417101724</v>
+        <v>0.1457516642771247</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.07699833333333332</v>
+        <v>0.176425</v>
       </c>
       <c r="H13">
-        <v>0.230995</v>
+        <v>0.35285</v>
       </c>
       <c r="I13">
-        <v>0.07206290135576338</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J13">
-        <v>0.08066597313380819</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.172684</v>
+        <v>1.974798</v>
       </c>
       <c r="N13">
-        <v>0.518052</v>
+        <v>5.924393999999999</v>
       </c>
       <c r="O13">
-        <v>0.001993983109432854</v>
+        <v>0.04426665502639657</v>
       </c>
       <c r="P13">
-        <v>0.002518837089714237</v>
+        <v>0.06484132809455205</v>
       </c>
       <c r="Q13">
-        <v>0.01329638019333333</v>
+        <v>0.3484037371499999</v>
       </c>
       <c r="R13">
-        <v>0.11966742174</v>
+        <v>2.0904224229</v>
       </c>
       <c r="S13">
-        <v>0.0001436922081201181</v>
+        <v>0.008709753975454659</v>
       </c>
       <c r="T13">
-        <v>0.0002031844450073282</v>
+        <v>0.01026026973457544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1293,10 +1290,10 @@
         <v>0.35285</v>
       </c>
       <c r="I14">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J14">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>53.750927</v>
+        <v>0.387359</v>
       </c>
       <c r="N14">
-        <v>107.501854</v>
+        <v>0.774718</v>
       </c>
       <c r="O14">
-        <v>0.6206622533318568</v>
+        <v>0.008682957560403621</v>
       </c>
       <c r="P14">
-        <v>0.522688180082781</v>
+        <v>0.008479136265878869</v>
       </c>
       <c r="Q14">
-        <v>9.483007295975</v>
+        <v>0.06833981157500001</v>
       </c>
       <c r="R14">
-        <v>37.9320291839</v>
+        <v>0.2733592463</v>
       </c>
       <c r="S14">
-        <v>0.1024815956045728</v>
+        <v>0.001708428705203338</v>
       </c>
       <c r="T14">
-        <v>0.06440515042162302</v>
+        <v>0.001341709489313306</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1355,40 +1352,40 @@
         <v>0.35285</v>
       </c>
       <c r="I15">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J15">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>1.974798</v>
+        <v>0.1334676666666667</v>
       </c>
       <c r="N15">
-        <v>5.924393999999999</v>
+        <v>0.400403</v>
       </c>
       <c r="O15">
-        <v>0.02280300350085579</v>
+        <v>0.002991783036802459</v>
       </c>
       <c r="P15">
-        <v>0.02880518430829431</v>
+        <v>0.004382332149590815</v>
       </c>
       <c r="Q15">
-        <v>0.3484037371499999</v>
+        <v>0.02354703309166667</v>
       </c>
       <c r="R15">
-        <v>2.0904224229</v>
+        <v>0.14128219855</v>
       </c>
       <c r="S15">
-        <v>0.003765152739351252</v>
+        <v>0.0005886528851784625</v>
       </c>
       <c r="T15">
-        <v>0.0035493479649845</v>
+        <v>0.0006934452338134853</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1417,10 +1414,10 @@
         <v>0.35285</v>
       </c>
       <c r="I16">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J16">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,60 +1426,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.126509</v>
+        <v>0.03647066666666667</v>
       </c>
       <c r="N16">
-        <v>0.3795270000000001</v>
+        <v>0.109412</v>
       </c>
       <c r="O16">
-        <v>0.001460800127349615</v>
+        <v>0.0008175187639019454</v>
       </c>
       <c r="P16">
-        <v>0.001845310285739608</v>
+        <v>0.001197492838842442</v>
       </c>
       <c r="Q16">
-        <v>0.022319350325</v>
+        <v>0.006434337366666668</v>
       </c>
       <c r="R16">
-        <v>0.13391610195</v>
+        <v>0.03860602420000001</v>
       </c>
       <c r="S16">
-        <v>0.0002412022434206372</v>
+        <v>0.0001608521651264999</v>
       </c>
       <c r="T16">
-        <v>0.0002273774136403947</v>
+        <v>0.0001894871664847693</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.176425</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H17">
-        <v>0.35285</v>
+        <v>1.078673</v>
       </c>
       <c r="I17">
-        <v>0.1651165268298953</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J17">
-        <v>0.1232190680329194</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,60 +1488,60 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.385588</v>
+        <v>42.079317</v>
       </c>
       <c r="N17">
-        <v>0.771176</v>
+        <v>84.15863400000001</v>
       </c>
       <c r="O17">
-        <v>0.004452386782793978</v>
+        <v>0.9432410856124954</v>
       </c>
       <c r="P17">
-        <v>0.003749559332842005</v>
+        <v>0.9210997106511356</v>
       </c>
       <c r="Q17">
-        <v>0.0680273629</v>
+        <v>15.129941035447</v>
       </c>
       <c r="R17">
-        <v>0.2721094516</v>
+        <v>90.77964621268201</v>
       </c>
       <c r="S17">
-        <v>0.0007351626416782732</v>
+        <v>0.3782337846311448</v>
       </c>
       <c r="T17">
-        <v>0.000462017206526927</v>
+        <v>0.4455671955811219</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.176425</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H18">
-        <v>0.35285</v>
+        <v>1.078673</v>
       </c>
       <c r="I18">
-        <v>0.1651165268298953</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J18">
-        <v>0.1232190680329194</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,90 +1550,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.192033</v>
+        <v>1.974798</v>
       </c>
       <c r="N18">
-        <v>90.576099</v>
+        <v>5.924393999999999</v>
       </c>
       <c r="O18">
-        <v>0.3486275731477111</v>
+        <v>0.04426665502639657</v>
       </c>
       <c r="P18">
-        <v>0.4403929289006289</v>
+        <v>0.06484132809455205</v>
       </c>
       <c r="Q18">
-        <v>5.326629422024999</v>
+        <v>0.7100537610179999</v>
       </c>
       <c r="R18">
-        <v>31.95977653215</v>
+        <v>6.390483849161999</v>
       </c>
       <c r="S18">
-        <v>0.05756417403528533</v>
+        <v>0.0177506522128678</v>
       </c>
       <c r="T18">
-        <v>0.05426480626742324</v>
+        <v>0.03136595135441035</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.176425</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H19">
-        <v>0.35285</v>
+        <v>1.078673</v>
       </c>
       <c r="I19">
-        <v>0.1651165268298953</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J19">
-        <v>0.1232190680329194</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.172684</v>
+        <v>0.387359</v>
       </c>
       <c r="N19">
-        <v>0.518052</v>
+        <v>0.774718</v>
       </c>
       <c r="O19">
-        <v>0.001993983109432854</v>
+        <v>0.008682957560403621</v>
       </c>
       <c r="P19">
-        <v>0.002518837089714237</v>
+        <v>0.008479136265878869</v>
       </c>
       <c r="Q19">
-        <v>0.0304657747</v>
+        <v>0.1392778982023333</v>
       </c>
       <c r="R19">
-        <v>0.1827946482</v>
+        <v>0.835667389214</v>
       </c>
       <c r="S19">
-        <v>0.0003292395655870279</v>
+        <v>0.003481811755189268</v>
       </c>
       <c r="T19">
-        <v>0.0003103687587213393</v>
+        <v>0.004101646025126971</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.5199516666666666</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H20">
-        <v>1.559855</v>
+        <v>1.078673</v>
       </c>
       <c r="I20">
-        <v>0.486623853305458</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J20">
-        <v>0.5447183771191427</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>53.750927</v>
+        <v>0.1334676666666667</v>
       </c>
       <c r="N20">
-        <v>107.501854</v>
+        <v>0.400403</v>
       </c>
       <c r="O20">
-        <v>0.6206622533318568</v>
+        <v>0.002991783036802459</v>
       </c>
       <c r="P20">
-        <v>0.522688180082781</v>
+        <v>0.004382332149590815</v>
       </c>
       <c r="Q20">
-        <v>27.94788407852833</v>
+        <v>0.04798932280211111</v>
       </c>
       <c r="R20">
-        <v>167.68730447117</v>
+        <v>0.431903905219</v>
       </c>
       <c r="S20">
-        <v>0.3020290573175965</v>
+        <v>0.001199686313568764</v>
       </c>
       <c r="T20">
-        <v>0.2847178571940507</v>
+        <v>0.002119882813357783</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,681 +1703,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.5199516666666666</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H21">
-        <v>1.559855</v>
+        <v>1.078673</v>
       </c>
       <c r="I21">
-        <v>0.486623853305458</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J21">
-        <v>0.5447183771191427</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.974798</v>
+        <v>0.03647066666666667</v>
       </c>
       <c r="N21">
-        <v>5.924393999999999</v>
+        <v>0.109412</v>
       </c>
       <c r="O21">
-        <v>0.02280300350085579</v>
+        <v>0.0008175187639019454</v>
       </c>
       <c r="P21">
-        <v>0.02880518430829431</v>
+        <v>0.001197492838842442</v>
       </c>
       <c r="Q21">
-        <v>1.02679951143</v>
+        <v>0.01311330780844445</v>
       </c>
       <c r="R21">
-        <v>9.241195602869999</v>
+        <v>0.118019770276</v>
       </c>
       <c r="S21">
-        <v>0.01109648543052429</v>
+        <v>0.0003278199187822909</v>
       </c>
       <c r="T21">
-        <v>0.01569071324903187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.5199516666666666</v>
-      </c>
-      <c r="H22">
-        <v>1.559855</v>
-      </c>
-      <c r="I22">
-        <v>0.486623853305458</v>
-      </c>
-      <c r="J22">
-        <v>0.5447183771191427</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.126509</v>
-      </c>
-      <c r="N22">
-        <v>0.3795270000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.001460800127349615</v>
-      </c>
-      <c r="P22">
-        <v>0.001845310285739608</v>
-      </c>
-      <c r="Q22">
-        <v>0.06577856539833334</v>
-      </c>
-      <c r="R22">
-        <v>0.592007088585</v>
-      </c>
-      <c r="S22">
-        <v>0.0007108601868799735</v>
-      </c>
-      <c r="T22">
-        <v>0.001005174424129341</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.5199516666666666</v>
-      </c>
-      <c r="H23">
-        <v>1.559855</v>
-      </c>
-      <c r="I23">
-        <v>0.486623853305458</v>
-      </c>
-      <c r="J23">
-        <v>0.5447183771191427</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.385588</v>
-      </c>
-      <c r="N23">
-        <v>0.771176</v>
-      </c>
-      <c r="O23">
-        <v>0.004452386782793978</v>
-      </c>
-      <c r="P23">
-        <v>0.003749559332842005</v>
-      </c>
-      <c r="Q23">
-        <v>0.2004871232466666</v>
-      </c>
-      <c r="R23">
-        <v>1.20292273948</v>
-      </c>
-      <c r="S23">
-        <v>0.002166637612649497</v>
-      </c>
-      <c r="T23">
-        <v>0.002042453874697633</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.5199516666666666</v>
-      </c>
-      <c r="H24">
-        <v>1.559855</v>
-      </c>
-      <c r="I24">
-        <v>0.486623853305458</v>
-      </c>
-      <c r="J24">
-        <v>0.5447183771191427</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>30.192033</v>
-      </c>
-      <c r="N24">
-        <v>90.576099</v>
-      </c>
-      <c r="O24">
-        <v>0.3486275731477111</v>
-      </c>
-      <c r="P24">
-        <v>0.4403929289006289</v>
-      </c>
-      <c r="Q24">
-        <v>15.698397878405</v>
-      </c>
-      <c r="R24">
-        <v>141.285580905645</v>
-      </c>
-      <c r="S24">
-        <v>0.1696504930136696</v>
-      </c>
-      <c r="T24">
-        <v>0.2398901215254966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.5199516666666666</v>
-      </c>
-      <c r="H25">
-        <v>1.559855</v>
-      </c>
-      <c r="I25">
-        <v>0.486623853305458</v>
-      </c>
-      <c r="J25">
-        <v>0.5447183771191427</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>0.172684</v>
-      </c>
-      <c r="N25">
-        <v>0.518052</v>
-      </c>
-      <c r="O25">
-        <v>0.001993983109432854</v>
-      </c>
-      <c r="P25">
-        <v>0.002518837089714237</v>
-      </c>
-      <c r="Q25">
-        <v>0.08978733360666664</v>
-      </c>
-      <c r="R25">
-        <v>0.8080860024599998</v>
-      </c>
-      <c r="S25">
-        <v>0.000970319744138214</v>
-      </c>
-      <c r="T25">
-        <v>0.001372056851736644</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.38902</v>
-      </c>
-      <c r="I26">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J26">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>53.750927</v>
-      </c>
-      <c r="N26">
-        <v>107.501854</v>
-      </c>
-      <c r="O26">
-        <v>0.6206622533318568</v>
-      </c>
-      <c r="P26">
-        <v>0.522688180082781</v>
-      </c>
-      <c r="Q26">
-        <v>6.970061873846666</v>
-      </c>
-      <c r="R26">
-        <v>41.82037124308</v>
-      </c>
-      <c r="S26">
-        <v>0.07532452944516727</v>
-      </c>
-      <c r="T26">
-        <v>0.07100720310902589</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.38902</v>
-      </c>
-      <c r="I27">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J27">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.974798</v>
-      </c>
-      <c r="N27">
-        <v>5.924393999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.02280300350085579</v>
-      </c>
-      <c r="P27">
-        <v>0.02880518430829431</v>
-      </c>
-      <c r="Q27">
-        <v>0.25607863932</v>
-      </c>
-      <c r="R27">
-        <v>2.30470775388</v>
-      </c>
-      <c r="S27">
-        <v>0.002767407715577769</v>
-      </c>
-      <c r="T27">
-        <v>0.003913185051263342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.38902</v>
-      </c>
-      <c r="I28">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J28">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.126509</v>
-      </c>
-      <c r="N28">
-        <v>0.3795270000000001</v>
-      </c>
-      <c r="O28">
-        <v>0.001460800127349615</v>
-      </c>
-      <c r="P28">
-        <v>0.001845310285739608</v>
-      </c>
-      <c r="Q28">
-        <v>0.01640484372666667</v>
-      </c>
-      <c r="R28">
-        <v>0.14764359354</v>
-      </c>
-      <c r="S28">
-        <v>0.0001772849591148199</v>
-      </c>
-      <c r="T28">
-        <v>0.0002506854511956535</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.38902</v>
-      </c>
-      <c r="I29">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J29">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.385588</v>
-      </c>
-      <c r="N29">
-        <v>0.771176</v>
-      </c>
-      <c r="O29">
-        <v>0.004452386782793978</v>
-      </c>
-      <c r="P29">
-        <v>0.003749559332842005</v>
-      </c>
-      <c r="Q29">
-        <v>0.05000048125333333</v>
-      </c>
-      <c r="R29">
-        <v>0.30000288752</v>
-      </c>
-      <c r="S29">
-        <v>0.0005403485350067201</v>
-      </c>
-      <c r="T29">
-        <v>0.0005093777346835911</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.38902</v>
-      </c>
-      <c r="I30">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J30">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>30.192033</v>
-      </c>
-      <c r="N30">
-        <v>90.576099</v>
-      </c>
-      <c r="O30">
-        <v>0.3486275731477111</v>
-      </c>
-      <c r="P30">
-        <v>0.4403929289006289</v>
-      </c>
-      <c r="Q30">
-        <v>3.91510155922</v>
-      </c>
-      <c r="R30">
-        <v>35.23591403298</v>
-      </c>
-      <c r="S30">
-        <v>0.04230998060215709</v>
-      </c>
-      <c r="T30">
-        <v>0.05982739105612296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.38902</v>
-      </c>
-      <c r="I31">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J31">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.172684</v>
-      </c>
-      <c r="N31">
-        <v>0.518052</v>
-      </c>
-      <c r="O31">
-        <v>0.001993983109432854</v>
-      </c>
-      <c r="P31">
-        <v>0.002518837089714237</v>
-      </c>
-      <c r="Q31">
-        <v>0.02239250989333333</v>
-      </c>
-      <c r="R31">
-        <v>0.20153258904</v>
-      </c>
-      <c r="S31">
-        <v>0.0002419928691222249</v>
-      </c>
-      <c r="T31">
-        <v>0.0003421840853557472</v>
+        <v>0.0005792679334947584</v>
       </c>
     </row>
   </sheetData>
